--- a/Production Planning/meter test rig production planning.xlsx
+++ b/Production Planning/meter test rig production planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="17235" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="17235" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="20150322_untitled_bom" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
   <si>
     <t>Qty</t>
   </si>
@@ -455,6 +455,12 @@
   </si>
   <si>
     <t>extra part I want to keep on hand to try</t>
+  </si>
+  <si>
+    <t>92K-ND</t>
+  </si>
+  <si>
+    <t>possible alternate to the through-hole part</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1017,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1049,6 +1055,9 @@
     <xf numFmtId="2" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1398,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z26"/>
+  <dimension ref="A2:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,8 +1804,8 @@
       <c r="A15" s="11">
         <v>2.0299999999999998</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>145</v>
+      <c r="B15" s="20">
+        <v>92</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1807,12 +1816,14 @@
         <v>29</v>
       </c>
       <c r="I15" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="11">
-        <v>3</v>
-      </c>
-      <c r="K15" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -1828,185 +1839,149 @@
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
+        <v>3</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+    <row r="17" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>2.04</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F17" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="14">
-        <v>2</v>
-      </c>
-      <c r="J16" s="14">
-        <v>6</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="14">
-        <v>0.21</v>
-      </c>
-      <c r="N16" s="14">
-        <v>813765</v>
-      </c>
-      <c r="O16" s="14">
-        <v>1</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="T16" s="14">
-        <v>0.123</v>
-      </c>
-      <c r="U16" s="14">
-        <v>0.123</v>
-      </c>
-      <c r="V16" s="14">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="W16" s="14">
-        <v>5000</v>
-      </c>
-      <c r="X16" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z16" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I17" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M17" s="14">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="N17" s="14">
-        <v>9480</v>
+        <v>813765</v>
       </c>
       <c r="O17" s="14">
         <v>1</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="S17" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="T17" s="14">
-        <v>0.1018</v>
+        <v>0.123</v>
       </c>
       <c r="U17" s="14">
-        <v>0.1018</v>
+        <v>0.123</v>
       </c>
       <c r="V17" s="14">
-        <v>0.3054</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="W17" s="14">
-        <v>55</v>
+        <v>5000</v>
       </c>
       <c r="X17" s="14">
         <v>1</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z17" s="16" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="Z17" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>2.06</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I18" s="14">
         <v>1</v>
@@ -2015,74 +1990,74 @@
         <v>3</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M18" s="14">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="N18" s="14">
-        <v>308079</v>
+        <v>9480</v>
       </c>
       <c r="O18" s="14">
         <v>1</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q18" s="14" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>43</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="S18" s="14"/>
       <c r="T18" s="14">
-        <v>4.0000000000000001E-3</v>
+        <v>0.1018</v>
       </c>
       <c r="U18" s="14">
-        <v>4.0000000000000001E-3</v>
+        <v>0.1018</v>
       </c>
       <c r="V18" s="14">
-        <v>1.2E-2</v>
+        <v>0.3054</v>
       </c>
       <c r="W18" s="14">
-        <v>60000</v>
+        <v>55</v>
       </c>
       <c r="X18" s="14">
         <v>1</v>
       </c>
       <c r="Y18" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z18" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
-        <v>2.0699999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="17">
-        <v>220</v>
+      <c r="H19" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="I19" s="14">
         <v>1</v>
@@ -2091,74 +2066,74 @@
         <v>3</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>31</v>
       </c>
       <c r="M19" s="14">
-        <v>0.63</v>
+        <v>0.1</v>
       </c>
       <c r="N19" s="14">
-        <v>14687</v>
+        <v>308079</v>
       </c>
       <c r="O19" s="14">
         <v>1</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="14" t="s">
         <v>41</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="S19" s="14" t="s">
         <v>43</v>
       </c>
       <c r="T19" s="14">
-        <v>4.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U19" s="14">
-        <v>4.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="V19" s="14">
-        <v>0.14399999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="W19" s="14">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="X19" s="14">
         <v>1</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z19" s="16"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>2.08</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="14" t="s">
-        <v>76</v>
+      <c r="H20" s="17">
+        <v>220</v>
       </c>
       <c r="I20" s="14">
         <v>1</v>
@@ -2167,72 +2142,74 @@
         <v>3</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M20" s="14">
-        <v>0.1</v>
+        <v>0.63</v>
       </c>
       <c r="N20" s="14">
-        <v>59111</v>
+        <v>14687</v>
       </c>
       <c r="O20" s="14">
         <v>1</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="14" t="s">
         <v>41</v>
       </c>
       <c r="R20" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="S20" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="T20" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="U20" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="V20" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="W20" s="14">
-        <v>46346</v>
+        <v>0</v>
       </c>
       <c r="X20" s="14">
         <v>1</v>
       </c>
       <c r="Y20" s="14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Z20" s="16"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I21" s="14">
         <v>1</v>
@@ -2241,32 +2218,30 @@
         <v>3</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M21" s="14">
         <v>0.1</v>
       </c>
       <c r="N21" s="14">
-        <v>320865</v>
+        <v>59111</v>
       </c>
       <c r="O21" s="14">
         <v>1</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="14" t="s">
         <v>41</v>
       </c>
       <c r="R21" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>43</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="S21" s="14"/>
       <c r="T21" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2277,38 +2252,38 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="W21" s="14">
-        <v>70000</v>
+        <v>46346</v>
       </c>
       <c r="X21" s="14">
         <v>1</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Z21" s="16"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
-        <v>2.1</v>
+      <c r="A22" s="14">
+        <v>2.09</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I22" s="14">
         <v>1</v>
@@ -2317,72 +2292,74 @@
         <v>3</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="M22" s="14">
-        <v>3.31</v>
+        <v>0.1</v>
       </c>
       <c r="N22" s="14">
-        <v>2772</v>
+        <v>320865</v>
       </c>
       <c r="O22" s="14">
         <v>1</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="R22" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="S22" s="14"/>
+        <v>95</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="T22" s="14">
-        <v>2.3542999999999998</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U22" s="14">
-        <v>2.3542999999999998</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="V22" s="14">
-        <v>7.0628999999999902</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="W22" s="14">
-        <v>919</v>
+        <v>70000</v>
       </c>
       <c r="X22" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="Z22" s="16"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>2.11</v>
+      <c r="A23" s="18">
+        <v>2.1</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I23" s="14">
         <v>1</v>
@@ -2391,72 +2368,72 @@
         <v>3</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="M23" s="14">
-        <v>0.54</v>
+        <v>3.31</v>
       </c>
       <c r="N23" s="14">
-        <v>4921</v>
+        <v>2772</v>
       </c>
       <c r="O23" s="14">
         <v>1</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="R23" s="14">
-        <v>70047676</v>
+        <v>105</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14">
-        <v>0.45</v>
+        <v>2.3542999999999998</v>
       </c>
       <c r="U23" s="14">
-        <v>0.45</v>
+        <v>2.3542999999999998</v>
       </c>
       <c r="V23" s="14">
-        <v>1.35</v>
+        <v>7.0628999999999902</v>
       </c>
       <c r="W23" s="14">
+        <v>919</v>
+      </c>
+      <c r="X23" s="14">
         <v>0</v>
       </c>
-      <c r="X23" s="14">
-        <v>1</v>
-      </c>
       <c r="Y23" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="Z23" s="16"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I24" s="14">
         <v>1</v>
@@ -2465,136 +2442,140 @@
         <v>3</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="M24" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0.54</v>
+      </c>
       <c r="N24" s="14">
-        <v>104800</v>
+        <v>4921</v>
       </c>
       <c r="O24" s="14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="R24" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="S24" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
+        <v>115</v>
+      </c>
+      <c r="R24" s="14">
+        <v>70047676</v>
+      </c>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="U24" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="V24" s="14">
+        <v>1.35</v>
+      </c>
       <c r="W24" s="14">
-        <v>104800</v>
+        <v>0</v>
       </c>
       <c r="X24" s="14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z24" s="16" t="s">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z24" s="16"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="I25" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="M25" s="14">
-        <v>0.32200000000000001</v>
-      </c>
+      <c r="M25" s="14"/>
       <c r="N25" s="14">
-        <v>5774</v>
+        <v>104800</v>
       </c>
       <c r="O25" s="14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="R25" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14">
-        <v>0.32</v>
-      </c>
-      <c r="U25" s="14">
-        <v>0.64</v>
-      </c>
-      <c r="V25" s="14">
-        <v>1.92</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
       <c r="W25" s="14">
-        <v>3161</v>
-      </c>
-      <c r="X25" s="14"/>
+        <v>104800</v>
+      </c>
+      <c r="X25" s="14">
+        <v>100</v>
+      </c>
       <c r="Y25" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z25" s="16"/>
+        <v>122</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I26" s="14">
         <v>2</v>
@@ -2603,27 +2584,97 @@
         <v>6</v>
       </c>
       <c r="K26" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="N26" s="14">
+        <v>5774</v>
+      </c>
+      <c r="O26" s="14">
+        <v>1</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="U26" s="14">
+        <v>0.64</v>
+      </c>
+      <c r="V26" s="14">
+        <v>1.92</v>
+      </c>
+      <c r="W26" s="14">
+        <v>3161</v>
+      </c>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z26" s="16"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>2.14</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="16"/>
+      <c r="C27" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="14">
+        <v>2</v>
+      </c>
+      <c r="J27" s="14">
+        <v>6</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" display="http://www.digikey.com/product-detail/en/2461/2461K-ND/303810"/>
+    <hyperlink ref="B16" r:id="rId1" display="http://www.digikey.com/product-detail/en/2461/2461K-ND/303810"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
